--- a/Submission/SportsInviter/Data/Config.xlsx
+++ b/Submission/SportsInviter/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\Documents\UiPath\Submission\SportsInviter\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arun\Desktop\gitsportsinviter\SportsInviter\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70AE80B-0E49-4D5B-A494-0A4CAFD4EBA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB3915D-8915-4F79-B0BE-92CC30F94F89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="1995" windowWidth="11550" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -189,18 +189,12 @@
     <t>API key from Open weather map</t>
   </si>
   <si>
-    <t>Google API Key for accessing location and calendar cloud apps</t>
-  </si>
-  <si>
     <t xml:space="preserve">Google Client ID for accessing Calendar </t>
   </si>
   <si>
     <t xml:space="preserve">Google Client secret for accessing Calendar </t>
   </si>
   <si>
-    <t>Google location API end point</t>
-  </si>
-  <si>
     <t>Open weather map end point</t>
   </si>
   <si>
@@ -214,6 +208,12 @@
   </si>
   <si>
     <t>e7aaa871a9f254766e7d</t>
+  </si>
+  <si>
+    <t>Google Direction API end point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google API Key for accessing direction and calendar cloud </t>
   </si>
 </sst>
 </file>
@@ -581,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
         <v>54</v>
@@ -654,10 +654,10 @@
         <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,10 +665,10 @@
         <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,10 +676,10 @@
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -690,7 +690,7 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -701,7 +701,7 @@
         <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
